--- a/Development/Sample_Bibliographic_Data/tryme.xlsx
+++ b/Development/Sample_Bibliographic_Data/tryme.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\confusionthewaitress\Google Drive\MetaLAB\book bio machine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\confusionthewaitress\Google Drive\MetaLAB\BBM\BookBio\Development\Sample_Bibliographic_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>edition</t>
   </si>
@@ -276,6 +276,24 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>mud</t>
+  </si>
+  <si>
+    <t>1000000 x 1</t>
+  </si>
+  <si>
+    <t>The Age of Andromeda</t>
+  </si>
+  <si>
+    <t>furtive glances</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -602,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +636,7 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
@@ -1026,7 +1045,7 @@
         <v>79</v>
       </c>
       <c r="C10">
-        <v>1960</v>
+        <v>2050</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1060,6 +1079,50 @@
       </c>
       <c r="N10" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>2250</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Development/Sample_Bibliographic_Data/tryme.xlsx
+++ b/Development/Sample_Bibliographic_Data/tryme.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\confusionthewaitress\Google Drive\MetaLAB\BBM\BookBio\Development\Sample_Bibliographic_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimothy\Google Drive\MetaLAB\BBM\BookBio\Development\Sample_Bibliographic_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>edition</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>Berlin</t>
-  </si>
-  <si>
-    <t>New York</t>
   </si>
   <si>
     <t>Calcutta</t>
@@ -623,7 +620,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -688,9 +685,6 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -822,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>1800</v>
@@ -910,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>1920</v>
@@ -954,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>1960</v>
@@ -1042,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>2050</v>
@@ -1051,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1060,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
         <v>81</v>
-      </c>
-      <c r="I10" t="s">
-        <v>82</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1078,7 +1072,7 @@
         <v>61</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1086,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>2250</v>
@@ -1095,19 +1089,19 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
         <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>86</v>
       </c>
       <c r="G11">
         <v>-1</v>
       </c>
       <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
         <v>87</v>
-      </c>
-      <c r="I11" t="s">
-        <v>88</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1122,7 +1116,7 @@
         <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
